--- a/user-data/kenya-gov-spend-pp/kenya-gov-spend-pp.xlsx
+++ b/user-data/kenya-gov-spend-pp/kenya-gov-spend-pp.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Units of measure: </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-gov-spend-pp/kenya-gov-spend-pp.xlsx
+++ b/user-data/kenya-gov-spend-pp/kenya-gov-spend-pp.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Units of measure: </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 35</t>
   </si>
   <si>
     <t xml:space="preserve"/>
